--- a/NLA/Assignment-3/error.xlsx
+++ b/NLA/Assignment-3/error.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,43 +505,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>42.79275894165039</v>
+        <v>51.66362380981445</v>
       </c>
       <c r="D2" t="n">
-        <v>42.79275894165039</v>
+        <v>51.66362380981445</v>
       </c>
       <c r="E2" t="n">
-        <v>196.0993194580078</v>
+        <v>223.4725799560547</v>
       </c>
       <c r="F2" t="n">
-        <v>196.1108245849609</v>
+        <v>223.4838714599609</v>
       </c>
       <c r="G2" t="n">
-        <v>38.84555816650391</v>
+        <v>49.16152191162109</v>
       </c>
       <c r="H2" t="n">
-        <v>38.84555816650391</v>
+        <v>49.16152191162109</v>
       </c>
       <c r="I2" t="n">
-        <v>180.3647003173828</v>
+        <v>205.9124603271484</v>
       </c>
       <c r="J2" t="n">
-        <v>180.3746337890625</v>
+        <v>205.9252777099609</v>
       </c>
       <c r="K2" t="n">
-        <v>36.64281845092773</v>
+        <v>45.84724807739258</v>
       </c>
       <c r="L2" t="n">
-        <v>36.64281845092773</v>
+        <v>45.84724807739258</v>
       </c>
       <c r="M2" t="n">
-        <v>176.7778625488281</v>
+        <v>199.3821563720703</v>
       </c>
       <c r="N2" t="n">
-        <v>176.7865905761719</v>
+        <v>199.3936157226562</v>
       </c>
     </row>
     <row r="3">
@@ -549,43 +549,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>30.31762886047363</v>
+        <v>42.79275894165039</v>
       </c>
       <c r="D3" t="n">
-        <v>30.317626953125</v>
+        <v>42.79275894165039</v>
       </c>
       <c r="E3" t="n">
-        <v>157.8475646972656</v>
+        <v>196.0993194580078</v>
       </c>
       <c r="F3" t="n">
-        <v>157.8560943603516</v>
+        <v>196.1108245849609</v>
       </c>
       <c r="G3" t="n">
-        <v>28.43204879760742</v>
+        <v>38.84555816650391</v>
       </c>
       <c r="H3" t="n">
-        <v>28.43204879760742</v>
+        <v>38.84555816650391</v>
       </c>
       <c r="I3" t="n">
-        <v>144.2399749755859</v>
+        <v>180.3647003173828</v>
       </c>
       <c r="J3" t="n">
-        <v>144.2492523193359</v>
+        <v>180.3746337890625</v>
       </c>
       <c r="K3" t="n">
-        <v>26.86995697021484</v>
+        <v>36.64281845092773</v>
       </c>
       <c r="L3" t="n">
-        <v>26.86995697021484</v>
+        <v>36.64281845092773</v>
       </c>
       <c r="M3" t="n">
-        <v>144.2094879150391</v>
+        <v>176.7778625488281</v>
       </c>
       <c r="N3" t="n">
-        <v>144.2174530029297</v>
+        <v>176.7865905761719</v>
       </c>
     </row>
     <row r="4">
@@ -593,43 +593,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>18.66306114196777</v>
+        <v>30.31762886047363</v>
       </c>
       <c r="D4" t="n">
-        <v>18.66306114196777</v>
+        <v>30.317626953125</v>
       </c>
       <c r="E4" t="n">
-        <v>114.9860916137695</v>
+        <v>157.8475646972656</v>
       </c>
       <c r="F4" t="n">
-        <v>114.9913864135742</v>
+        <v>157.8560943603516</v>
       </c>
       <c r="G4" t="n">
-        <v>17.24715042114258</v>
+        <v>28.43204879760742</v>
       </c>
       <c r="H4" t="n">
-        <v>17.24715042114258</v>
+        <v>28.43204879760742</v>
       </c>
       <c r="I4" t="n">
-        <v>103.4189834594727</v>
+        <v>144.2399749755859</v>
       </c>
       <c r="J4" t="n">
-        <v>103.4246520996094</v>
+        <v>144.2492523193359</v>
       </c>
       <c r="K4" t="n">
-        <v>17.13165283203125</v>
+        <v>26.86995697021484</v>
       </c>
       <c r="L4" t="n">
-        <v>17.13165283203125</v>
+        <v>26.86995697021484</v>
       </c>
       <c r="M4" t="n">
-        <v>107.6414566040039</v>
+        <v>144.2094879150391</v>
       </c>
       <c r="N4" t="n">
-        <v>107.6466217041016</v>
+        <v>144.2174530029297</v>
       </c>
     </row>
     <row r="5">
@@ -637,43 +637,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>9.476650238037109</v>
+        <v>18.66306114196777</v>
       </c>
       <c r="D5" t="n">
-        <v>9.476650238037109</v>
+        <v>18.66306114196777</v>
       </c>
       <c r="E5" t="n">
-        <v>76.43435668945312</v>
+        <v>114.9860916137695</v>
       </c>
       <c r="F5" t="n">
-        <v>76.43781280517578</v>
+        <v>114.9913864135742</v>
       </c>
       <c r="G5" t="n">
-        <v>8.78646183013916</v>
+        <v>17.24715042114258</v>
       </c>
       <c r="H5" t="n">
-        <v>8.78646183013916</v>
+        <v>17.24715042114258</v>
       </c>
       <c r="I5" t="n">
-        <v>64.87263488769531</v>
+        <v>103.4189834594727</v>
       </c>
       <c r="J5" t="n">
-        <v>64.87528991699219</v>
+        <v>103.4246520996094</v>
       </c>
       <c r="K5" t="n">
-        <v>8.887383460998535</v>
+        <v>17.13165283203125</v>
       </c>
       <c r="L5" t="n">
-        <v>8.887383460998535</v>
+        <v>17.13165283203125</v>
       </c>
       <c r="M5" t="n">
-        <v>72.43596649169922</v>
+        <v>107.6414566040039</v>
       </c>
       <c r="N5" t="n">
-        <v>72.43907928466797</v>
+        <v>107.6466217041016</v>
       </c>
     </row>
     <row r="6">
@@ -681,43 +681,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="C6" t="n">
-        <v>4.263622760772705</v>
+        <v>9.476650238037109</v>
       </c>
       <c r="D6" t="n">
-        <v>4.263622760772705</v>
+        <v>9.476650238037109</v>
       </c>
       <c r="E6" t="n">
-        <v>49.85615158081055</v>
+        <v>76.43435668945312</v>
       </c>
       <c r="F6" t="n">
-        <v>49.85819625854492</v>
+        <v>76.43781280517578</v>
       </c>
       <c r="G6" t="n">
-        <v>3.785536050796509</v>
+        <v>8.78646183013916</v>
       </c>
       <c r="H6" t="n">
-        <v>3.785536050796509</v>
+        <v>8.78646183013916</v>
       </c>
       <c r="I6" t="n">
-        <v>37.31569290161133</v>
+        <v>64.87263488769531</v>
       </c>
       <c r="J6" t="n">
-        <v>37.31728744506836</v>
+        <v>64.87528991699219</v>
       </c>
       <c r="K6" t="n">
-        <v>4.056247234344482</v>
+        <v>8.887383460998535</v>
       </c>
       <c r="L6" t="n">
-        <v>4.056247234344482</v>
+        <v>8.887383460998535</v>
       </c>
       <c r="M6" t="n">
-        <v>47.35223770141602</v>
+        <v>72.43596649169922</v>
       </c>
       <c r="N6" t="n">
-        <v>47.35380935668945</v>
+        <v>72.43907928466797</v>
       </c>
     </row>
     <row r="7">
@@ -725,43 +725,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>320</v>
+        <v>160</v>
       </c>
       <c r="C7" t="n">
-        <v>1.986512541770935</v>
+        <v>4.263622760772705</v>
       </c>
       <c r="D7" t="n">
-        <v>1.986512541770935</v>
+        <v>4.263622760772705</v>
       </c>
       <c r="E7" t="n">
-        <v>33.42233657836914</v>
+        <v>49.85615158081055</v>
       </c>
       <c r="F7" t="n">
-        <v>33.42345809936523</v>
+        <v>49.85819625854492</v>
       </c>
       <c r="G7" t="n">
-        <v>1.486707925796509</v>
+        <v>3.785536050796509</v>
       </c>
       <c r="H7" t="n">
-        <v>1.486708045005798</v>
+        <v>3.785536050796509</v>
       </c>
       <c r="I7" t="n">
-        <v>21.24563407897949</v>
+        <v>37.31569290161133</v>
       </c>
       <c r="J7" t="n">
-        <v>21.24630546569824</v>
+        <v>37.31728744506836</v>
       </c>
       <c r="K7" t="n">
-        <v>1.911815047264099</v>
+        <v>4.056247234344482</v>
       </c>
       <c r="L7" t="n">
-        <v>1.911815047264099</v>
+        <v>4.056247234344482</v>
       </c>
       <c r="M7" t="n">
-        <v>31.72477722167969</v>
+        <v>47.35223770141602</v>
       </c>
       <c r="N7" t="n">
-        <v>31.72566032409668</v>
+        <v>47.35380935668945</v>
       </c>
     </row>
     <row r="8">
@@ -769,43 +769,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="C8" t="n">
-        <v>1.099757194519043</v>
+        <v>1.986512541770935</v>
       </c>
       <c r="D8" t="n">
-        <v>1.099757313728333</v>
+        <v>1.986512541770935</v>
       </c>
       <c r="E8" t="n">
-        <v>20.71326637268066</v>
+        <v>33.42233657836914</v>
       </c>
       <c r="F8" t="n">
-        <v>20.71389770507812</v>
+        <v>33.42345809936523</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6588044166564941</v>
+        <v>1.486707925796509</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6588044762611389</v>
+        <v>1.486708045005798</v>
       </c>
       <c r="I8" t="n">
-        <v>11.9053430557251</v>
+        <v>21.24563407897949</v>
       </c>
       <c r="J8" t="n">
-        <v>11.90569877624512</v>
+        <v>21.24630546569824</v>
       </c>
       <c r="K8" t="n">
-        <v>1.04063880443573</v>
+        <v>1.911815047264099</v>
       </c>
       <c r="L8" t="n">
-        <v>1.04063868522644</v>
+        <v>1.911815047264099</v>
       </c>
       <c r="M8" t="n">
-        <v>19.5427131652832</v>
+        <v>31.72477722167969</v>
       </c>
       <c r="N8" t="n">
-        <v>19.54331016540527</v>
+        <v>31.72566032409668</v>
       </c>
     </row>
     <row r="9">
@@ -813,42 +813,86 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>640</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.099757194519043</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.099757313728333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20.71326637268066</v>
+      </c>
+      <c r="F9" t="n">
+        <v>20.71389770507812</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.6588044166564941</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.6588044762611389</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11.9053430557251</v>
+      </c>
+      <c r="J9" t="n">
+        <v>11.90569877624512</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.04063880443573</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.04063868522644</v>
+      </c>
+      <c r="M9" t="n">
+        <v>19.5427131652832</v>
+      </c>
+      <c r="N9" t="n">
+        <v>19.54331016540527</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
         <v>1280</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>0.4675933122634888</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.4675934016704559</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E10" t="n">
         <v>7.008702278137207</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>7.00892162322998</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>0.262598842382431</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H10" t="n">
         <v>0.2625988721847534</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I10" t="n">
         <v>3.937592744827271</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J10" t="n">
         <v>3.937700986862183</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K10" t="n">
         <v>0.4423990249633789</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L10" t="n">
         <v>0.4423989653587341</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M10" t="n">
         <v>6.65140962600708</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N10" t="n">
         <v>6.651632785797119</v>
       </c>
     </row>

--- a/NLA/Assignment-3/error.xlsx
+++ b/NLA/Assignment-3/error.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,43 +505,43 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C2" t="n">
-        <v>51.66362380981445</v>
+        <v>15.36259841918945</v>
       </c>
       <c r="D2" t="n">
-        <v>51.66362380981445</v>
+        <v>15.36259841918945</v>
       </c>
       <c r="E2" t="n">
-        <v>223.4725799560547</v>
+        <v>101.5121841430664</v>
       </c>
       <c r="F2" t="n">
-        <v>223.4838714599609</v>
+        <v>101.5171127319336</v>
       </c>
       <c r="G2" t="n">
-        <v>49.16152191162109</v>
+        <v>14.61239051818848</v>
       </c>
       <c r="H2" t="n">
-        <v>49.16152191162109</v>
+        <v>14.61239051818848</v>
       </c>
       <c r="I2" t="n">
-        <v>205.9124603271484</v>
+        <v>90.20632934570312</v>
       </c>
       <c r="J2" t="n">
-        <v>205.9252777099609</v>
+        <v>90.21011352539062</v>
       </c>
       <c r="K2" t="n">
-        <v>45.84724807739258</v>
+        <v>14.2475004196167</v>
       </c>
       <c r="L2" t="n">
-        <v>45.84724807739258</v>
+        <v>14.2475004196167</v>
       </c>
       <c r="M2" t="n">
-        <v>199.3821563720703</v>
+        <v>95.48202514648438</v>
       </c>
       <c r="N2" t="n">
-        <v>199.3936157226562</v>
+        <v>95.48635101318359</v>
       </c>
     </row>
     <row r="3">
@@ -549,43 +549,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>42.79275894165039</v>
+        <v>7.420379161834717</v>
       </c>
       <c r="D3" t="n">
-        <v>42.79275894165039</v>
+        <v>7.420379161834717</v>
       </c>
       <c r="E3" t="n">
-        <v>196.0993194580078</v>
+        <v>66.4844970703125</v>
       </c>
       <c r="F3" t="n">
-        <v>196.1108245849609</v>
+        <v>66.48711395263672</v>
       </c>
       <c r="G3" t="n">
-        <v>38.84555816650391</v>
+        <v>6.79449462890625</v>
       </c>
       <c r="H3" t="n">
-        <v>38.84555816650391</v>
+        <v>6.79449462890625</v>
       </c>
       <c r="I3" t="n">
-        <v>180.3647003173828</v>
+        <v>54.65874099731445</v>
       </c>
       <c r="J3" t="n">
-        <v>180.3746337890625</v>
+        <v>54.66122436523438</v>
       </c>
       <c r="K3" t="n">
-        <v>36.64281845092773</v>
+        <v>7.021533489227295</v>
       </c>
       <c r="L3" t="n">
-        <v>36.64281845092773</v>
+        <v>7.021533489227295</v>
       </c>
       <c r="M3" t="n">
-        <v>176.7778625488281</v>
+        <v>63.11175918579102</v>
       </c>
       <c r="N3" t="n">
-        <v>176.7865905761719</v>
+        <v>63.11387634277344</v>
       </c>
     </row>
     <row r="4">
@@ -593,43 +593,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="C4" t="n">
-        <v>30.31762886047363</v>
+        <v>4.655424118041992</v>
       </c>
       <c r="D4" t="n">
-        <v>30.317626953125</v>
+        <v>4.655424118041992</v>
       </c>
       <c r="E4" t="n">
-        <v>157.8475646972656</v>
+        <v>51.80364608764648</v>
       </c>
       <c r="F4" t="n">
-        <v>157.8560943603516</v>
+        <v>51.80594635009766</v>
       </c>
       <c r="G4" t="n">
-        <v>28.43204879760742</v>
+        <v>4.162152290344238</v>
       </c>
       <c r="H4" t="n">
-        <v>28.43204879760742</v>
+        <v>4.162152290344238</v>
       </c>
       <c r="I4" t="n">
-        <v>144.2399749755859</v>
+        <v>39.36900329589844</v>
       </c>
       <c r="J4" t="n">
-        <v>144.2492523193359</v>
+        <v>39.37060546875</v>
       </c>
       <c r="K4" t="n">
-        <v>26.86995697021484</v>
+        <v>4.390741348266602</v>
       </c>
       <c r="L4" t="n">
-        <v>26.86995697021484</v>
+        <v>4.390741348266602</v>
       </c>
       <c r="M4" t="n">
-        <v>144.2094879150391</v>
+        <v>49.22469711303711</v>
       </c>
       <c r="N4" t="n">
-        <v>144.2174530029297</v>
+        <v>49.22660064697266</v>
       </c>
     </row>
     <row r="5">
@@ -637,43 +637,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="C5" t="n">
-        <v>18.66306114196777</v>
+        <v>3.331353664398193</v>
       </c>
       <c r="D5" t="n">
-        <v>18.66306114196777</v>
+        <v>3.331353902816772</v>
       </c>
       <c r="E5" t="n">
-        <v>114.9860916137695</v>
+        <v>43.68777847290039</v>
       </c>
       <c r="F5" t="n">
-        <v>114.9913864135742</v>
+        <v>43.68928909301758</v>
       </c>
       <c r="G5" t="n">
-        <v>17.24715042114258</v>
+        <v>2.803365707397461</v>
       </c>
       <c r="H5" t="n">
-        <v>17.24715042114258</v>
+        <v>2.803365707397461</v>
       </c>
       <c r="I5" t="n">
-        <v>103.4189834594727</v>
+        <v>30.97881317138672</v>
       </c>
       <c r="J5" t="n">
-        <v>103.4246520996094</v>
+        <v>30.97992706298828</v>
       </c>
       <c r="K5" t="n">
-        <v>17.13165283203125</v>
+        <v>3.144458770751953</v>
       </c>
       <c r="L5" t="n">
-        <v>17.13165283203125</v>
+        <v>3.144458770751953</v>
       </c>
       <c r="M5" t="n">
-        <v>107.6414566040039</v>
+        <v>41.51633834838867</v>
       </c>
       <c r="N5" t="n">
-        <v>107.6466217041016</v>
+        <v>41.51766967773438</v>
       </c>
     </row>
     <row r="6">
@@ -681,43 +681,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="C6" t="n">
-        <v>9.476650238037109</v>
+        <v>2.574458837509155</v>
       </c>
       <c r="D6" t="n">
-        <v>9.476650238037109</v>
+        <v>2.574458837509155</v>
       </c>
       <c r="E6" t="n">
-        <v>76.43435668945312</v>
+        <v>38.41996765136719</v>
       </c>
       <c r="F6" t="n">
-        <v>76.43781280517578</v>
+        <v>38.42146682739258</v>
       </c>
       <c r="G6" t="n">
-        <v>8.78646183013916</v>
+        <v>2.070561647415161</v>
       </c>
       <c r="H6" t="n">
-        <v>8.78646183013916</v>
+        <v>2.070561647415161</v>
       </c>
       <c r="I6" t="n">
-        <v>64.87263488769531</v>
+        <v>25.82340240478516</v>
       </c>
       <c r="J6" t="n">
-        <v>64.87528991699219</v>
+        <v>25.82443618774414</v>
       </c>
       <c r="K6" t="n">
-        <v>8.887383460998535</v>
+        <v>2.457302570343018</v>
       </c>
       <c r="L6" t="n">
-        <v>8.887383460998535</v>
+        <v>2.457302570343018</v>
       </c>
       <c r="M6" t="n">
-        <v>72.43596649169922</v>
+        <v>36.53043746948242</v>
       </c>
       <c r="N6" t="n">
-        <v>72.43907928466797</v>
+        <v>36.53163909912109</v>
       </c>
     </row>
     <row r="7">
@@ -725,43 +725,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="C7" t="n">
-        <v>4.263622760772705</v>
+        <v>2.123112440109253</v>
       </c>
       <c r="D7" t="n">
-        <v>4.263622760772705</v>
+        <v>2.123112440109253</v>
       </c>
       <c r="E7" t="n">
-        <v>49.85615158081055</v>
+        <v>34.66594314575195</v>
       </c>
       <c r="F7" t="n">
-        <v>49.85819625854492</v>
+        <v>34.66725540161133</v>
       </c>
       <c r="G7" t="n">
-        <v>3.785536050796509</v>
+        <v>1.613005399703979</v>
       </c>
       <c r="H7" t="n">
-        <v>3.785536050796509</v>
+        <v>1.61300528049469</v>
       </c>
       <c r="I7" t="n">
-        <v>37.31569290161133</v>
+        <v>22.35785484313965</v>
       </c>
       <c r="J7" t="n">
-        <v>37.31728744506836</v>
+        <v>22.35855865478516</v>
       </c>
       <c r="K7" t="n">
-        <v>4.056247234344482</v>
+        <v>2.03509259223938</v>
       </c>
       <c r="L7" t="n">
-        <v>4.056247234344482</v>
+        <v>2.03509259223938</v>
       </c>
       <c r="M7" t="n">
-        <v>47.35223770141602</v>
+        <v>32.93544006347656</v>
       </c>
       <c r="N7" t="n">
-        <v>47.35380935668945</v>
+        <v>32.93639373779297</v>
       </c>
     </row>
     <row r="8">
@@ -769,43 +769,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C8" t="n">
-        <v>1.986512541770935</v>
+        <v>1.831328153610229</v>
       </c>
       <c r="D8" t="n">
-        <v>1.986512541770935</v>
+        <v>1.831328153610229</v>
       </c>
       <c r="E8" t="n">
-        <v>33.42233657836914</v>
+        <v>31.74922561645508</v>
       </c>
       <c r="F8" t="n">
-        <v>33.42345809936523</v>
+        <v>31.75021553039551</v>
       </c>
       <c r="G8" t="n">
-        <v>1.486707925796509</v>
+        <v>1.32302987575531</v>
       </c>
       <c r="H8" t="n">
-        <v>1.486708045005798</v>
+        <v>1.3230299949646</v>
       </c>
       <c r="I8" t="n">
-        <v>21.24563407897949</v>
+        <v>19.80244064331055</v>
       </c>
       <c r="J8" t="n">
-        <v>21.24630546569824</v>
+        <v>19.80316734313965</v>
       </c>
       <c r="K8" t="n">
-        <v>1.911815047264099</v>
+        <v>1.76096522808075</v>
       </c>
       <c r="L8" t="n">
-        <v>1.911815047264099</v>
+        <v>1.760965466499329</v>
       </c>
       <c r="M8" t="n">
-        <v>31.72477722167969</v>
+        <v>30.09012794494629</v>
       </c>
       <c r="N8" t="n">
-        <v>31.72566032409668</v>
+        <v>30.09105682373047</v>
       </c>
     </row>
     <row r="9">
@@ -813,43 +813,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>640</v>
+        <v>400</v>
       </c>
       <c r="C9" t="n">
-        <v>1.099757194519043</v>
+        <v>1.629428505897522</v>
       </c>
       <c r="D9" t="n">
-        <v>1.099757313728333</v>
+        <v>1.629428625106812</v>
       </c>
       <c r="E9" t="n">
-        <v>20.71326637268066</v>
+        <v>29.30184745788574</v>
       </c>
       <c r="F9" t="n">
-        <v>20.71389770507812</v>
+        <v>29.30279350280762</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6588044166564941</v>
+        <v>1.117854595184326</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6588044762611389</v>
+        <v>1.117854595184326</v>
       </c>
       <c r="I9" t="n">
-        <v>11.9053430557251</v>
+        <v>17.81426620483398</v>
       </c>
       <c r="J9" t="n">
-        <v>11.90569877624512</v>
+        <v>17.81488418579102</v>
       </c>
       <c r="K9" t="n">
-        <v>1.04063880443573</v>
+        <v>1.553490996360779</v>
       </c>
       <c r="L9" t="n">
-        <v>1.04063868522644</v>
+        <v>1.553490996360779</v>
       </c>
       <c r="M9" t="n">
-        <v>19.5427131652832</v>
+        <v>27.71642112731934</v>
       </c>
       <c r="N9" t="n">
-        <v>19.54331016540527</v>
+        <v>27.71726989746094</v>
       </c>
     </row>
     <row r="10">
@@ -857,43 +857,1363 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1280</v>
+        <v>450</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4675933122634888</v>
+        <v>1.476799368858337</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4675934016704559</v>
+        <v>1.476799368858337</v>
       </c>
       <c r="E10" t="n">
-        <v>7.008702278137207</v>
+        <v>27.17309951782227</v>
       </c>
       <c r="F10" t="n">
-        <v>7.00892162322998</v>
+        <v>27.17401504516602</v>
       </c>
       <c r="G10" t="n">
-        <v>0.262598842382431</v>
+        <v>0.96938556432724</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2625988721847534</v>
+        <v>0.9693855047225952</v>
       </c>
       <c r="I10" t="n">
-        <v>3.937592744827271</v>
+        <v>16.21924209594727</v>
       </c>
       <c r="J10" t="n">
-        <v>3.937700986862183</v>
+        <v>16.21973419189453</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4423990249633789</v>
+        <v>1.402506470680237</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4423989653587341</v>
+        <v>1.402506470680237</v>
       </c>
       <c r="M10" t="n">
-        <v>6.65140962600708</v>
+        <v>25.67017555236816</v>
       </c>
       <c r="N10" t="n">
-        <v>6.651632785797119</v>
+        <v>25.67102813720703</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>500</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.351946592330933</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.351946592330933</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.26639366149902</v>
+      </c>
+      <c r="F11" t="n">
+        <v>25.26731491088867</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.8632490038871765</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.8632491230964661</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14.87310218811035</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14.87359523773193</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.284978270530701</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.284978151321411</v>
+      </c>
+      <c r="M11" t="n">
+        <v>23.84861755371094</v>
+      </c>
+      <c r="N11" t="n">
+        <v>23.84931945800781</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>550</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.251824736595154</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.251824736595154</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23.52812767028809</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23.52886962890625</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.7769363522529602</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.7769363522529602</v>
+      </c>
+      <c r="I12" t="n">
+        <v>13.70060539245605</v>
+      </c>
+      <c r="J12" t="n">
+        <v>13.70108890533447</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.184996962547302</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.184996962547302</v>
+      </c>
+      <c r="M12" t="n">
+        <v>22.19782257080078</v>
+      </c>
+      <c r="N12" t="n">
+        <v>22.19840431213379</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>600</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.165992021560669</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.165992140769958</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21.91992378234863</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21.9205265045166</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.7053496241569519</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.7053496241569519</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12.66090965270996</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12.66134643554688</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.098621487617493</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.098621487617493</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20.67891120910645</v>
+      </c>
+      <c r="N13" t="n">
+        <v>20.6795539855957</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>650</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.085856080055237</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.085855960845947</v>
+      </c>
+      <c r="E14" t="n">
+        <v>20.42249870300293</v>
+      </c>
+      <c r="F14" t="n">
+        <v>20.42313957214355</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6483625173568726</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6483625769615173</v>
+      </c>
+      <c r="I14" t="n">
+        <v>11.72415924072266</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.72452163696289</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.02423083782196</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.02423083782196</v>
+      </c>
+      <c r="M14" t="n">
+        <v>19.2674560546875</v>
+      </c>
+      <c r="N14" t="n">
+        <v>19.26810073852539</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>700</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.015188932418823</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.015188932418823</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19.01830101013184</v>
+      </c>
+      <c r="F15" t="n">
+        <v>19.01895713806152</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5979961156845093</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5979960560798645</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10.86440944671631</v>
+      </c>
+      <c r="J15" t="n">
+        <v>10.86472988128662</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9587939977645874</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.9587940573692322</v>
+      </c>
+      <c r="M15" t="n">
+        <v>17.94493865966797</v>
+      </c>
+      <c r="N15" t="n">
+        <v>17.9455623626709</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>750</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9551866054534912</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9551865458488464</v>
+      </c>
+      <c r="E16" t="n">
+        <v>17.69319534301758</v>
+      </c>
+      <c r="F16" t="n">
+        <v>17.69375991821289</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5556636452674866</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.555663526058197</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10.06973934173584</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10.07005500793457</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.8993660807609558</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.8993661999702454</v>
+      </c>
+      <c r="M16" t="n">
+        <v>16.69845390319824</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16.6989631652832</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>800</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8950958847999573</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8950958847999573</v>
+      </c>
+      <c r="E17" t="n">
+        <v>16.43838691711426</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16.43887329101562</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5161810517311096</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5161812305450439</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9.326623916625977</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9.326944351196289</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.84305739402771</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.8430574536323547</v>
+      </c>
+      <c r="M17" t="n">
+        <v>15.52189636230469</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15.52231979370117</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>850</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8414466381072998</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.841446578502655</v>
+      </c>
+      <c r="E18" t="n">
+        <v>15.24708938598633</v>
+      </c>
+      <c r="F18" t="n">
+        <v>15.24752330780029</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.4831598103046417</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.4831597805023193</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.62995433807373</v>
+      </c>
+      <c r="J18" t="n">
+        <v>8.630224227905273</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.7936140894889832</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.7936140298843384</v>
+      </c>
+      <c r="M18" t="n">
+        <v>14.40408229827881</v>
+      </c>
+      <c r="N18" t="n">
+        <v>14.40451049804688</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>900</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7895174026489258</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7895172834396362</v>
+      </c>
+      <c r="E19" t="n">
+        <v>14.1142749786377</v>
+      </c>
+      <c r="F19" t="n">
+        <v>14.11470317840576</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4505990445613861</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4505989253520966</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.972631454467773</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.972847461700439</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.7442524433135986</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.7442525029182434</v>
+      </c>
+      <c r="M19" t="n">
+        <v>13.33860969543457</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13.33903312683105</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>950</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.742719292640686</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.7427192330360413</v>
+      </c>
+      <c r="E20" t="n">
+        <v>13.03448677062988</v>
+      </c>
+      <c r="F20" t="n">
+        <v>13.03489208221436</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.4216238558292389</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.4216238260269165</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7.351184844970703</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7.351398944854736</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.698522686958313</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.6985228061676025</v>
+      </c>
+      <c r="M20" t="n">
+        <v>12.32226943969727</v>
+      </c>
+      <c r="N20" t="n">
+        <v>12.32267951965332</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6951293349266052</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6951292157173157</v>
+      </c>
+      <c r="E21" t="n">
+        <v>12.00104904174805</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12.00142288208008</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3943376243114471</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.3943375051021576</v>
+      </c>
+      <c r="I21" t="n">
+        <v>6.760975360870361</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6.761194229125977</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.6565552949905396</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.6565554141998291</v>
+      </c>
+      <c r="M21" t="n">
+        <v>11.35130977630615</v>
+      </c>
+      <c r="N21" t="n">
+        <v>11.35162830352783</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6511918902397156</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.6511919498443604</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11.01471042633057</v>
+      </c>
+      <c r="F22" t="n">
+        <v>11.01500988006592</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3679181039333344</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3679181635379791</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6.199435234069824</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.199630260467529</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.6152912974357605</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.6152912974357605</v>
+      </c>
+      <c r="M22" t="n">
+        <v>10.42276954650879</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10.4230842590332</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6099511981010437</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6099511384963989</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10.06910037994385</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10.06940078735352</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3438017964363098</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.343801736831665</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.664511203765869</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5.664666175842285</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5747401714324951</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.5747400522232056</v>
+      </c>
+      <c r="M23" t="n">
+        <v>9.533821105957031</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9.534150123596191</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1150</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5668267607688904</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5668268203735352</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.168805122375488</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.16911792755127</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.32049760222435</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.3204976320266724</v>
+      </c>
+      <c r="I24" t="n">
+        <v>5.154183387756348</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5.154335021972656</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.53655606508255</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.5365560054779053</v>
+      </c>
+      <c r="M24" t="n">
+        <v>8.685782432556152</v>
+      </c>
+      <c r="N24" t="n">
+        <v>8.68605899810791</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1200</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5287599563598633</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5287599563598633</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8.308347702026367</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8.30859375</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2971955537796021</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.2971955239772797</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.668022155761719</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.668175220489502</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5000470280647278</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.5000472068786621</v>
+      </c>
+      <c r="M25" t="n">
+        <v>7.875369071960449</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.875584602355957</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.4904220104217529</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.4904219806194305</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.484902858734131</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.485119342803955</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2760317623615265</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.2760318219661713</v>
+      </c>
+      <c r="I26" t="n">
+        <v>4.204931735992432</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.205058097839355</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.4632965326309204</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.463296502828598</v>
+      </c>
+      <c r="M26" t="n">
+        <v>7.099653720855713</v>
+      </c>
+      <c r="N26" t="n">
+        <v>7.099873542785645</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1300</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.4522330760955811</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.4522330164909363</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.699448108673096</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6.699666976928711</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.2547500431537628</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2547501027584076</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.76344895362854</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.763555288314819</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.4292742311954498</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.4292741119861603</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6.358798980712891</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6.359013557434082</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.4164078533649445</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.4164079427719116</v>
+      </c>
+      <c r="E28" t="n">
+        <v>5.951699256896973</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.951879024505615</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2342270910739899</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2342270910739899</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.34319281578064</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.343301296234131</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3956252932548523</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.3956252038478851</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5.650233268737793</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5.650390625</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3803882598876953</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.3803881406784058</v>
+      </c>
+      <c r="E29" t="n">
+        <v>5.241232872009277</v>
+      </c>
+      <c r="F29" t="n">
+        <v>5.241379261016846</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.2145383656024933</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.2145383656024933</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.942363262176514</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.942454099655151</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3613498508930206</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.3613498210906982</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4.973772048950195</v>
+      </c>
+      <c r="N29" t="n">
+        <v>4.973926067352295</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1450</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.3461037278175354</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.3461038172245026</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4.566384315490723</v>
+      </c>
+      <c r="F30" t="n">
+        <v>4.566533088684082</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.194746196269989</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.1947459578514099</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.562164545059204</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.562241554260254</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.3286561965942383</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.3286561071872711</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4.332414627075195</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.332552909851074</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.313389778137207</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.3133897483348846</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.924848794937134</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.924962759017944</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.1755521595478058</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.1755522638559341</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.201791048049927</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.201860189437866</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.2965281009674072</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.2965280115604401</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3.724691152572632</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.72480034828186</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2781112492084503</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.2781113386154175</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.319210529327393</v>
+      </c>
+      <c r="F32" t="n">
+        <v>3.319321393966675</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.1561661511659622</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.1561660617589951</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.863250851631165</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.863304138183594</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.264445960521698</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.2644460499286652</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3.15237283706665</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3.152483224868774</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.24493607878685</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.2449360638856888</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.754000425338745</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.754077434539795</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.1376238763332367</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.1376237720251083</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.545703291893005</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.545751810073853</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.2334253489971161</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.2334253937005997</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2.6154465675354</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.615523338317871</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1650</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.2119508385658264</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.2119507044553757</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.228285312652588</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2.228357791900635</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.1193673238158226</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.119367390871048</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.250386118888855</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.250425100326538</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.2017170190811157</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.201716884970665</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.114100456237793</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.114170789718628</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.179674968123436</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.1796749532222748</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.742242336273193</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.742299675941467</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.10085429251194</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.1008541658520699</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9775731563568115</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9775983691215515</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.1704825311899185</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.1704825609922409</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.651686429977417</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.651743650436401</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.1481020152568817</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.148101881146431</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.298520565032959</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.298559308052063</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.08278404176235199</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.08278423547744751</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7288960814476013</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7289170622825623</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1391744315624237</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1391744911670685</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.232189536094666</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.232228398323059</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.1160057932138443</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.1160057112574577</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.9005550742149353</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9005826711654663</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.06500743329524994</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.06500735878944397</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.5059491991996765</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5059626698493958</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.1095143258571625</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.1095144003629684</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.8575114607810974</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.8575409054756165</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.08331753313541412</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.08331754803657532</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.5528990030288696</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.5529175996780396</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.046677615493536</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.0466776043176651</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3124053180217743</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.3124150335788727</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.07981262356042862</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.07981265336275101</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.5324404835700989</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.5324583053588867</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.05100898444652557</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.05100912600755692</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.2698118388652802</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.2698202431201935</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02889008074998856</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.02888996154069901</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.1522427201271057</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.1522474884986877</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.05005877465009689</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.05005877092480659</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.2590673863887787</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.2590756416320801</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.02016165666282177</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.02016149647533894</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.06120951473712921</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.06121086701750755</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.01128229964524508</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.01128232385963202</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.03440875187516212</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.03440926969051361</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.01999005675315857</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.01999004930257797</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.06115242093801498</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.06115406006574631</v>
       </c>
     </row>
   </sheetData>
